--- a/results/mp/logistic/home-spam/confidence/42/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/42/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,34 +40,43 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>return</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
     <t>stopped</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>poorly</t>
   </si>
   <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>useless</t>
-  </si>
-  <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>spray</t>
   </si>
   <si>
     <t>difficult</t>
@@ -76,54 +85,51 @@
     <t>maybe</t>
   </si>
   <si>
-    <t>cracked</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>months</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>grind</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>lid</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>received</t>
   </si>
   <si>
-    <t>1</t>
+    <t>back</t>
+  </si>
+  <si>
+    <t>machine</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
@@ -136,10 +142,10 @@
     <t>small</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>would</t>
-  </si>
-  <si>
-    <t>product</t>
   </si>
   <si>
     <t>negative</t>
@@ -536,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -605,38 +611,38 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9469026548672567</v>
+        <v>0.9292929292929293</v>
       </c>
       <c r="C3">
+        <v>92</v>
+      </c>
+      <c r="D3">
+        <v>92</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3">
+        <v>0.8359375</v>
+      </c>
+      <c r="L3">
         <v>107</v>
       </c>
-      <c r="D3">
+      <c r="M3">
         <v>107</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3">
-        <v>0.796875</v>
-      </c>
-      <c r="L3">
-        <v>102</v>
-      </c>
-      <c r="M3">
-        <v>102</v>
-      </c>
       <c r="N3">
         <v>1</v>
       </c>
@@ -647,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -655,37 +661,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.9292035398230089</v>
       </c>
       <c r="C4">
+        <v>105</v>
+      </c>
+      <c r="D4">
+        <v>105</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4">
-        <v>46</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="K4">
-        <v>0.7391304347826086</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9191919191919192</v>
+        <v>0.9</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="D5">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>0.7311827956989247</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="L5">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M5">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8898305084745762</v>
+        <v>0.8728813559322034</v>
       </c>
       <c r="C6">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>0.6915254237288135</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L6">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M6">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8867924528301887</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -823,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>0.6300309597523219</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="L7">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="M7">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8275862068965517</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>0.5454545454545454</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7783783783783784</v>
+        <v>0.85</v>
       </c>
       <c r="C9">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -923,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>0.4805194805194805</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -955,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.775</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -973,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>0.3815789473684211</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -997,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,16 +1032,16 @@
         <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>0.2228571428571429</v>
+        <v>0.24</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1047,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1055,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C12">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1073,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>0.1685393258426966</v>
+        <v>0.1717495987158908</v>
       </c>
       <c r="L12">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M12">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1097,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1105,13 +1111,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7058823529411765</v>
+        <v>0.7621621621621621</v>
       </c>
       <c r="C13">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="D13">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1123,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0.05205479452054795</v>
+        <v>0.04657534246575343</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1147,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1155,13 +1161,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6792452830188679</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1173,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1181,7 +1187,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6764705882352942</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="C15">
         <v>23</v>
@@ -1199,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1207,13 +1213,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6712328767123288</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C16">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1225,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1233,13 +1239,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5925925925925926</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="C17">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1251,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1259,13 +1265,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5566037735849056</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C18">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D18">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1277,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1285,13 +1291,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5384615384615384</v>
+        <v>0.5658914728682171</v>
       </c>
       <c r="C19">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="D19">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1303,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1311,13 +1317,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5348837209302325</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C20">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1329,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1337,13 +1343,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.517948717948718</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="C21">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="D21">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1355,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>94</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1363,13 +1369,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="C22">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1381,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1389,13 +1395,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4482758620689655</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="C23">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="D23">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1407,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>48</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1415,13 +1421,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4366197183098591</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="C24">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1433,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1441,13 +1447,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4189189189189189</v>
+        <v>0.4121621621621622</v>
       </c>
       <c r="C25">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1459,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1467,13 +1473,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.415929203539823</v>
+        <v>0.4</v>
       </c>
       <c r="C26">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D26">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1485,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1493,13 +1499,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3076923076923077</v>
+        <v>0.3805309734513274</v>
       </c>
       <c r="C27">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D27">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1511,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1519,13 +1525,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3009708737864077</v>
+        <v>0.2912621359223301</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1537,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1545,13 +1551,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2905027932960894</v>
+        <v>0.2788461538461539</v>
       </c>
       <c r="C29">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1563,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>127</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1571,13 +1577,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.25</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C30">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1589,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1597,13 +1603,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1401617250673854</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C31">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D31">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1615,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>319</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1623,13 +1629,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1238095238095238</v>
+        <v>0.2290502793296089</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D32">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1641,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>184</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1649,13 +1655,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.11</v>
+        <v>0.1185983827493261</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1667,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>178</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1675,13 +1681,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.08843537414965986</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="C34">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1693,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>268</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1701,13 +1707,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03673469387755102</v>
+        <v>0.11</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D35">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1719,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>708</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1727,25 +1733,77 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.03259452411994785</v>
+        <v>0.07482993197278912</v>
       </c>
       <c r="C36">
+        <v>22</v>
+      </c>
+      <c r="D36">
+        <v>22</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.0560625814863103</v>
+      </c>
+      <c r="C37">
+        <v>43</v>
+      </c>
+      <c r="D37">
+        <v>43</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.03401360544217687</v>
+      </c>
+      <c r="C38">
         <v>25</v>
       </c>
-      <c r="D36">
+      <c r="D38">
         <v>25</v>
       </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>742</v>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>710</v>
       </c>
     </row>
   </sheetData>
